--- a/docs/attack-excel-files/v18.1/ics-attack/ics-attack-v18.1-tactics.xlsx
+++ b/docs/attack-excel-files/v18.1/ics-attack/ics-attack-v18.1-tactics.xlsx
@@ -261,16 +261,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -293,7 +285,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -301,35 +293,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -632,31 +606,31 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -673,7 +647,7 @@
       <c r="D2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F2" t="s">
@@ -702,7 +676,7 @@
       <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F3" t="s">
@@ -731,7 +705,7 @@
       <c r="D4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F4" t="s">
@@ -760,7 +734,7 @@
       <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F5" t="s">
@@ -789,7 +763,7 @@
       <c r="D6" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F6" t="s">
@@ -818,7 +792,7 @@
       <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F7" t="s">
@@ -847,7 +821,7 @@
       <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F8" t="s">
@@ -876,7 +850,7 @@
       <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F9" t="s">
@@ -905,7 +879,7 @@
       <c r="D10" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F10" t="s">
@@ -934,7 +908,7 @@
       <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F11" t="s">
@@ -963,7 +937,7 @@
       <c r="D12" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F12" t="s">
@@ -992,7 +966,7 @@
       <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F13" t="s">
